--- a/data/trans_orig/P1429-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1429-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11C07B76-B71E-4CFA-9A3A-F6F20FE978D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3644B3B1-32EE-496F-A703-CABCB743D8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2B4867E3-1362-43B9-A405-19A12FC7DFAB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DF9733A6-6EA0-4DF2-A0C6-3D519F5DF18C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -461,13 +461,13 @@
     <t>1,0%</t>
   </si>
   <si>
-    <t>5,27%</t>
+    <t>4,04%</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>2,5%</t>
+    <t>2,83%</t>
   </si>
   <si>
     <t>98,44%</t>
@@ -476,61 +476,79 @@
     <t>99,0%</t>
   </si>
   <si>
-    <t>94,73%</t>
+    <t>95,96%</t>
   </si>
   <si>
     <t>99,51%</t>
   </si>
   <si>
-    <t>97,5%</t>
+    <t>97,17%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>1,25%</t>
+    <t>1,32%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>4,93%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
   </si>
   <si>
     <t>1,67%</t>
   </si>
   <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
     <t>99,65%</t>
   </si>
   <si>
-    <t>98,75%</t>
+    <t>98,68%</t>
   </si>
   <si>
     <t>97,01%</t>
   </si>
   <si>
-    <t>95,07%</t>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
   </si>
   <si>
     <t>98,33%</t>
   </si>
   <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
     <t>0,2%</t>
   </si>
   <si>
     <t>3,59%</t>
   </si>
   <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>2,4%</t>
+    <t>2,44%</t>
   </si>
   <si>
     <t>99,8%</t>
@@ -539,13 +557,13 @@
     <t>96,41%</t>
   </si>
   <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
   </si>
   <si>
     <t>98,72%</t>
@@ -554,670 +572,652 @@
     <t>0,27%</t>
   </si>
   <si>
-    <t>1,74%</t>
+    <t>1,48%</t>
   </si>
   <si>
     <t>3,4%</t>
   </si>
   <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de osteoporosis en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de osteoporosis en 2023 (Tasa respuesta: 99,68%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
     <t>2,37%</t>
   </si>
   <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
   </si>
   <si>
     <t>96,0%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de osteoporosis en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
   </si>
   <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
   </si>
   <si>
     <t>99,39%</t>
   </si>
   <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de osteoporosis en 2023 (Tasa respuesta: 99,68%)</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
     <t>94,56%</t>
   </si>
   <si>
-    <t>92,23%</t>
+    <t>92,0%</t>
   </si>
   <si>
     <t>95,47%</t>
@@ -1226,7 +1226,7 @@
     <t>96,7%</t>
   </si>
   <si>
-    <t>95,31%</t>
+    <t>97,19%</t>
   </si>
 </sst>
 </file>
@@ -1638,7 +1638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7868C6C0-B8E7-4DE0-80B4-FF331DEB90CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60D0651-B7B1-4583-A124-622D946C89EE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3007,7 +3007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95112C2-E20C-452C-99A2-88A9C2E3F725}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268C6381-4CA1-4B64-970F-5D91AE414182}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3406,10 +3406,10 @@
         <v>150</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M9" s="7">
         <v>18</v>
@@ -3418,13 +3418,13 @@
         <v>19575</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,10 +3439,10 @@
         <v>585627</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>24</v>
@@ -3454,13 +3454,13 @@
         <v>567647</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="M10" s="7">
         <v>1085</v>
@@ -3469,13 +3469,13 @@
         <v>1153274</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,7 +3549,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3564,7 +3564,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -3609,13 +3609,13 @@
         <v>36952</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -3627,10 +3627,10 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,7 +3648,7 @@
         <v>24</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -3660,13 +3660,13 @@
         <v>992021</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="M14" s="7">
         <v>1840</v>
@@ -3678,10 +3678,10 @@
         <v>25</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,7 +3770,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -3815,13 +3815,13 @@
         <v>26397</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="M17" s="7">
         <v>25</v>
@@ -3830,13 +3830,13 @@
         <v>28652</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,10 +3851,10 @@
         <v>754366</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>24</v>
@@ -3866,13 +3866,13 @@
         <v>749668</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M18" s="7">
         <v>1367</v>
@@ -3881,13 +3881,13 @@
         <v>1504034</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4012,7 +4012,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H21" s="7">
         <v>56</v>
@@ -4021,13 +4021,13 @@
         <v>60402</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>189</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>58</v>
@@ -4036,13 +4036,13 @@
         <v>62436</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>41</v>
+        <v>194</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4057,10 +4057,10 @@
         <v>945706</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>24</v>
@@ -4072,13 +4072,13 @@
         <v>991499</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>195</v>
+        <v>28</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M22" s="7">
         <v>1855</v>
@@ -4087,13 +4087,13 @@
         <v>1937204</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>51</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4215,10 +4215,10 @@
         <v>96</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>116</v>
+        <v>203</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="H25" s="7">
         <v>131</v>
@@ -4227,13 +4227,13 @@
         <v>142365</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="M25" s="7">
         <v>136</v>
@@ -4242,13 +4242,13 @@
         <v>148730</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>204</v>
+        <v>13</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,13 +4263,13 @@
         <v>3419411</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H26" s="7">
         <v>3164</v>
@@ -4278,13 +4278,13 @@
         <v>3411625</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M26" s="7">
         <v>6367</v>
@@ -4293,13 +4293,13 @@
         <v>6831036</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>214</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4376,7 +4376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70A5D33-C5F6-4855-B504-C8338A6F3DD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77B0631-C6FE-47FF-A465-7E71AA934BCA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4393,7 +4393,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4506,7 +4506,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,13 +4551,13 @@
         <v>1100</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4566,13 +4566,13 @@
         <v>2996</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -4581,13 +4581,13 @@
         <v>4095</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>223</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4602,10 +4602,10 @@
         <v>115446</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>24</v>
@@ -4617,13 +4617,13 @@
         <v>110364</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M6" s="7">
         <v>224</v>
@@ -4632,13 +4632,13 @@
         <v>225811</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>231</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,7 +4712,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4742,7 +4742,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4763,7 +4763,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H9" s="7">
         <v>21</v>
@@ -4772,13 +4772,13 @@
         <v>23797</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>43</v>
+        <v>237</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M9" s="7">
         <v>22</v>
@@ -4787,13 +4787,13 @@
         <v>24598</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,10 +4808,10 @@
         <v>557452</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>24</v>
@@ -4823,13 +4823,13 @@
         <v>535682</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>246</v>
       </c>
       <c r="M10" s="7">
         <v>1068</v>
@@ -4838,13 +4838,13 @@
         <v>1093135</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4918,7 +4918,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4933,7 +4933,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4963,13 +4963,13 @@
         <v>3845</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>98</v>
+        <v>251</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -4978,13 +4978,13 @@
         <v>35581</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -4996,10 +4996,10 @@
         <v>65</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,13 +5014,13 @@
         <v>1018586</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>107</v>
+        <v>257</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>947</v>
@@ -5029,13 +5029,13 @@
         <v>1007332</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>257</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M14" s="7">
         <v>1894</v>
@@ -5047,10 +5047,10 @@
         <v>75</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5139,7 +5139,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5154,7 +5154,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,13 +5169,13 @@
         <v>2238</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -5184,13 +5184,13 @@
         <v>30851</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>62</v>
+        <v>267</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M17" s="7">
         <v>29</v>
@@ -5199,13 +5199,13 @@
         <v>33089</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>17</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,10 +5220,10 @@
         <v>757314</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>24</v>
@@ -5235,13 +5235,13 @@
         <v>754160</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>72</v>
+        <v>276</v>
       </c>
       <c r="M18" s="7">
         <v>1403</v>
@@ -5250,13 +5250,13 @@
         <v>1511474</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>27</v>
+        <v>278</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5345,7 +5345,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5375,13 +5375,13 @@
         <v>3787</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>98</v>
+        <v>265</v>
       </c>
       <c r="H21" s="7">
         <v>25</v>
@@ -5390,13 +5390,13 @@
         <v>28938</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="M21" s="7">
         <v>29</v>
@@ -5408,10 +5408,10 @@
         <v>37</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>280</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,13 +5426,13 @@
         <v>933780</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>107</v>
+        <v>273</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>282</v>
+        <v>89</v>
       </c>
       <c r="H22" s="7">
         <v>934</v>
@@ -5441,13 +5441,13 @@
         <v>1014841</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M22" s="7">
         <v>1862</v>
@@ -5459,7 +5459,7 @@
         <v>46</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>286</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>287</v>
@@ -5632,13 +5632,13 @@
         <v>3382578</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>295</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H26" s="7">
         <v>3232</v>
@@ -5745,7 +5745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B27DAE2-B6D0-448B-A343-BFFBFB8D8AB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A33F38-F2C3-4A02-B93D-D042CF07E414}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5875,7 +5875,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5890,7 +5890,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5905,7 +5905,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5920,13 +5920,13 @@
         <v>2387</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>304</v>
+        <v>253</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>305</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>82</v>
+        <v>306</v>
       </c>
       <c r="H5" s="7">
         <v>28</v>
@@ -5935,13 +5935,13 @@
         <v>10863</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M5" s="7">
         <v>32</v>
@@ -5950,13 +5950,13 @@
         <v>13250</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5971,13 +5971,13 @@
         <v>99595</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>90</v>
+        <v>313</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H6" s="7">
         <v>215</v>
@@ -5986,13 +5986,13 @@
         <v>119870</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M6" s="7">
         <v>329</v>
@@ -6001,13 +6001,13 @@
         <v>219465</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6081,7 +6081,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -6090,13 +6090,13 @@
         <v>27412</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>57</v>
+        <v>323</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -6105,13 +6105,13 @@
         <v>27412</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>304</v>
+        <v>253</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>323</v>
+        <v>116</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6126,13 +6126,13 @@
         <v>4575</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>232</v>
+        <v>327</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>37</v>
+        <v>328</v>
       </c>
       <c r="H9" s="7">
         <v>62</v>
@@ -6144,10 +6144,10 @@
         <v>123</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="M9" s="7">
         <v>69</v>
@@ -6156,13 +6156,13 @@
         <v>35702</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>328</v>
+        <v>271</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6177,13 +6177,13 @@
         <v>545248</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>46</v>
+        <v>334</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="H10" s="7">
         <v>932</v>
@@ -6192,13 +6192,13 @@
         <v>560810</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>334</v>
+        <v>227</v>
       </c>
       <c r="M10" s="7">
         <v>1537</v>
@@ -6207,13 +6207,13 @@
         <v>1106059</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6287,7 +6287,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -6296,13 +6296,13 @@
         <v>1323</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -6332,13 +6332,13 @@
         <v>8705</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H13" s="7">
         <v>82</v>
@@ -6347,13 +6347,13 @@
         <v>44815</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M13" s="7">
         <v>93</v>
@@ -6362,13 +6362,13 @@
         <v>53520</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6383,13 +6383,13 @@
         <v>1029227</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="H14" s="7">
         <v>1426</v>
@@ -6398,13 +6398,13 @@
         <v>1009510</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>165</v>
+        <v>354</v>
       </c>
       <c r="M14" s="7">
         <v>2378</v>
@@ -6413,13 +6413,13 @@
         <v>2038737</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6493,7 +6493,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6508,7 +6508,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6538,13 +6538,13 @@
         <v>4631</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>355</v>
+        <v>56</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="H17" s="7">
         <v>57</v>
@@ -6553,13 +6553,13 @@
         <v>34170</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>357</v>
+        <v>63</v>
       </c>
       <c r="M17" s="7">
         <v>62</v>
@@ -6568,13 +6568,13 @@
         <v>38801</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6589,13 +6589,13 @@
         <v>720355</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>362</v>
+        <v>196</v>
       </c>
       <c r="H18" s="7">
         <v>983</v>
@@ -6604,13 +6604,13 @@
         <v>836278</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>363</v>
+        <v>71</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>168</v>
+        <v>259</v>
       </c>
       <c r="M18" s="7">
         <v>1650</v>
@@ -6619,10 +6619,10 @@
         <v>1556634</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>25</v>
@@ -6708,13 +6708,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>366</v>
+        <v>81</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -6723,13 +6723,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6744,13 +6744,13 @@
         <v>9350</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>21</v>
+        <v>250</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>369</v>
+        <v>294</v>
       </c>
       <c r="H21" s="7">
         <v>92</v>
@@ -6759,13 +6759,13 @@
         <v>55477</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>370</v>
+        <v>220</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M21" s="7">
         <v>100</v>
@@ -6777,10 +6777,10 @@
         <v>85</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>160</v>
+        <v>370</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6795,13 +6795,13 @@
         <v>953733</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="H22" s="7">
         <v>1464</v>
@@ -6810,13 +6810,13 @@
         <v>1088752</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>378</v>
+        <v>145</v>
       </c>
       <c r="M22" s="7">
         <v>2459</v>
@@ -6825,13 +6825,13 @@
         <v>2042485</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6917,10 +6917,10 @@
         <v>15</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>248</v>
+        <v>378</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -6929,13 +6929,13 @@
         <v>31497</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>383</v>
+        <v>341</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>323</v>
+        <v>380</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6950,13 +6950,13 @@
         <v>29648</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>385</v>
+        <v>251</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>162</v>
+        <v>383</v>
       </c>
       <c r="H25" s="7">
         <v>321</v>
@@ -6965,13 +6965,13 @@
         <v>176453</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>357</v>
+        <v>386</v>
       </c>
       <c r="M25" s="7">
         <v>356</v>
@@ -6980,13 +6980,13 @@
         <v>206101</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7001,10 +7001,10 @@
         <v>3348158</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>390</v>
@@ -7028,16 +7028,16 @@
         <v>8353</v>
       </c>
       <c r="N26" s="7">
-        <v>6963380</v>
+        <v>6963379</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>394</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7079,7 +7079,7 @@
         <v>8715</v>
       </c>
       <c r="N27" s="7">
-        <v>7200977</v>
+        <v>7200976</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>26</v>

--- a/data/trans_orig/P1429-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1429-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3644B3B1-32EE-496F-A703-CABCB743D8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1389A456-7027-46F3-A58E-60BCCF2B810B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DF9733A6-6EA0-4DF2-A0C6-3D519F5DF18C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CDAEF430-08E2-4F02-90B5-87C56AC5824B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="397">
   <si>
     <t>Población con diagnóstico de osteoporosis en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No recogida</t>
@@ -95,10 +95,10 @@
     <t>3,11%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
   </si>
   <si>
     <t>1,54%</t>
@@ -107,7 +107,7 @@
     <t>0,37%</t>
   </si>
   <si>
-    <t>3,65%</t>
+    <t>3,49%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,22 +125,22 @@
     <t>96,89%</t>
   </si>
   <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
   </si>
   <si>
     <t>98,46%</t>
   </si>
   <si>
-    <t>96,35%</t>
+    <t>96,51%</t>
   </si>
   <si>
     <t>99,63%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -155,58 +155,55 @@
     <t>1,65%</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
+    <t>3,06%</t>
   </si>
   <si>
     <t>3,73%</t>
   </si>
   <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
   </si>
   <si>
     <t>2,69%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
   </si>
   <si>
     <t>98,35%</t>
   </si>
   <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
   </si>
   <si>
     <t>96,27%</t>
   </si>
   <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
   </si>
   <si>
     <t>97,31%</t>
   </si>
   <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,21%</t>
@@ -221,1009 +218,1015 @@
     <t>0,66%</t>
   </si>
   <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>3,78%</t>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de osteoporosis en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de osteoporosis en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
   </si>
   <si>
     <t>2,6%</t>
   </si>
   <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de osteoporosis en 2023 (Tasa respuesta: 99,68%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
     <t>5,18%</t>
   </si>
   <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
   </si>
   <si>
     <t>94,82%</t>
   </si>
   <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de osteoporosis en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
   </si>
   <si>
     <t>95,96%</t>
   </si>
   <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de osteoporosis en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
   </si>
   <si>
     <t>95,25%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de osteoporosis en 2023 (Tasa respuesta: 99,68%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
   </si>
   <si>
     <t>97,19%</t>
@@ -1638,7 +1641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60D0651-B7B1-4583-A124-622D946C89EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D99E63-FD1C-4A9B-8F35-69C7E745EB65}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2022,10 +2025,10 @@
         <v>37</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="H9" s="7">
         <v>21</v>
@@ -2034,13 +2037,13 @@
         <v>21468</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="M9" s="7">
         <v>30</v>
@@ -2049,13 +2052,13 @@
         <v>31009</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2070,13 +2073,13 @@
         <v>569113</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="H10" s="7">
         <v>547</v>
@@ -2085,13 +2088,13 @@
         <v>554128</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M10" s="7">
         <v>1116</v>
@@ -2100,13 +2103,13 @@
         <v>1123241</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2162,7 +2165,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2180,7 +2183,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2195,7 +2198,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2210,7 +2213,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2225,13 +2228,13 @@
         <v>12535</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -2240,13 +2243,13 @@
         <v>36615</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M13" s="7">
         <v>46</v>
@@ -2255,13 +2258,13 @@
         <v>49150</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2276,13 +2279,13 @@
         <v>949265</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H14" s="7">
         <v>874</v>
@@ -2291,13 +2294,13 @@
         <v>931778</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M14" s="7">
         <v>1758</v>
@@ -2306,13 +2309,13 @@
         <v>1881043</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2368,7 +2371,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2386,7 +2389,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2401,7 +2404,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2416,7 +2419,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2431,13 +2434,13 @@
         <v>2674</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H17" s="7">
         <v>39</v>
@@ -2446,13 +2449,13 @@
         <v>39141</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M17" s="7">
         <v>42</v>
@@ -2461,10 +2464,10 @@
         <v>41815</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>86</v>
@@ -2518,7 +2521,7 @@
         <v>94</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2574,7 +2577,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2592,7 +2595,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2607,7 +2610,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2622,7 +2625,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,13 +2640,13 @@
         <v>9077</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H21" s="7">
         <v>43</v>
@@ -2652,13 +2655,13 @@
         <v>44562</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M21" s="7">
         <v>53</v>
@@ -2667,13 +2670,13 @@
         <v>53639</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,13 +2691,13 @@
         <v>933145</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H22" s="7">
         <v>954</v>
@@ -2703,13 +2706,13 @@
         <v>994050</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M22" s="7">
         <v>1938</v>
@@ -2718,13 +2721,13 @@
         <v>1927195</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,7 +2801,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2813,7 +2816,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2828,7 +2831,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,13 +2846,13 @@
         <v>33826</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H25" s="7">
         <v>141</v>
@@ -2858,13 +2861,13 @@
         <v>145291</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M25" s="7">
         <v>175</v>
@@ -2873,13 +2876,13 @@
         <v>179117</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,7 +2894,7 @@
         <v>3180</v>
       </c>
       <c r="D26" s="7">
-        <v>3242718</v>
+        <v>3242717</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>126</v>
@@ -2921,16 +2924,16 @@
         <v>6336</v>
       </c>
       <c r="N26" s="7">
-        <v>6476623</v>
+        <v>6476624</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,7 +2945,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>26</v>
@@ -2972,7 +2975,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>26</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3007,7 +3010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268C6381-4CA1-4B64-970F-5D91AE414182}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDC7B80-F386-421F-A7F4-6918F4BB2A4A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3024,7 +3027,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3137,7 +3140,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3152,7 +3155,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3167,7 +3170,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,7 +3191,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -3197,13 +3200,13 @@
         <v>1116</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -3212,13 +3215,13 @@
         <v>1116</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,7 +3239,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>26</v>
@@ -3248,10 +3251,10 @@
         <v>110789</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>24</v>
@@ -3263,10 +3266,10 @@
         <v>226554</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>24</v>
@@ -3343,7 +3346,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3358,7 +3361,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3388,13 +3391,13 @@
         <v>2077</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H9" s="7">
         <v>16</v>
@@ -3403,13 +3406,13 @@
         <v>17498</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M9" s="7">
         <v>18</v>
@@ -3418,13 +3421,13 @@
         <v>19575</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,10 +3442,10 @@
         <v>585627</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>24</v>
@@ -3454,13 +3457,13 @@
         <v>567647</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M10" s="7">
         <v>1085</v>
@@ -3469,13 +3472,13 @@
         <v>1153274</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3531,7 +3534,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3549,7 +3552,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3564,7 +3567,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3579,7 +3582,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,7 +3603,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -3609,13 +3612,13 @@
         <v>36952</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -3627,10 +3630,10 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,7 +3651,7 @@
         <v>24</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -3660,13 +3663,13 @@
         <v>992021</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>173</v>
+        <v>72</v>
       </c>
       <c r="M14" s="7">
         <v>1840</v>
@@ -3678,10 +3681,10 @@
         <v>25</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,7 +3740,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3755,7 +3758,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3770,7 +3773,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3785,7 +3788,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,13 +3803,13 @@
         <v>2254</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -3815,13 +3818,13 @@
         <v>26397</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>179</v>
+        <v>59</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M17" s="7">
         <v>25</v>
@@ -3830,13 +3833,13 @@
         <v>28652</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,10 +3854,10 @@
         <v>754366</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>24</v>
@@ -3866,13 +3869,13 @@
         <v>749668</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>187</v>
+        <v>67</v>
       </c>
       <c r="M18" s="7">
         <v>1367</v>
@@ -3881,13 +3884,13 @@
         <v>1504034</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,7 +3946,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3961,7 +3964,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3976,7 +3979,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3991,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,13 +4009,13 @@
         <v>2033</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H21" s="7">
         <v>56</v>
@@ -4021,13 +4024,13 @@
         <v>60402</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>19</v>
+        <v>190</v>
       </c>
       <c r="M21" s="7">
         <v>58</v>
@@ -4036,13 +4039,13 @@
         <v>62436</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>193</v>
+        <v>103</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4057,10 +4060,10 @@
         <v>945706</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>24</v>
@@ -4072,13 +4075,13 @@
         <v>991499</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>28</v>
+        <v>195</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M22" s="7">
         <v>1855</v>
@@ -4087,13 +4090,13 @@
         <v>1937204</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,7 +4170,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4182,7 +4185,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4197,7 +4200,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,13 +4215,13 @@
         <v>6365</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>203</v>
+        <v>117</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H25" s="7">
         <v>131</v>
@@ -4227,13 +4230,13 @@
         <v>142365</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="M25" s="7">
         <v>136</v>
@@ -4242,13 +4245,13 @@
         <v>148730</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>13</v>
+        <v>203</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,13 +4266,13 @@
         <v>3419411</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H26" s="7">
         <v>3164</v>
@@ -4278,13 +4281,13 @@
         <v>3411625</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M26" s="7">
         <v>6367</v>
@@ -4293,13 +4296,13 @@
         <v>6831036</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>25</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4355,7 +4358,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -4376,7 +4379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77B0631-C6FE-47FF-A465-7E71AA934BCA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE376270-057A-446F-8F18-F5F03315A8C1}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4393,7 +4396,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4506,7 +4509,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4536,7 +4539,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,13 +4554,13 @@
         <v>1100</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4566,13 +4569,13 @@
         <v>2996</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -4581,13 +4584,13 @@
         <v>4095</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4602,10 +4605,10 @@
         <v>115446</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>24</v>
@@ -4617,13 +4620,13 @@
         <v>110364</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M6" s="7">
         <v>224</v>
@@ -4632,13 +4635,13 @@
         <v>225811</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>146</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,7 +4715,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4727,7 +4730,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4742,7 +4745,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,13 +4760,13 @@
         <v>802</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H9" s="7">
         <v>21</v>
@@ -4772,13 +4775,13 @@
         <v>23797</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M9" s="7">
         <v>22</v>
@@ -4787,13 +4790,13 @@
         <v>24598</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,10 +4811,10 @@
         <v>557452</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>24</v>
@@ -4823,13 +4826,13 @@
         <v>535682</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M10" s="7">
         <v>1068</v>
@@ -4838,13 +4841,13 @@
         <v>1093135</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4900,7 +4903,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4918,7 +4921,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4933,7 +4936,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4948,7 +4951,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4963,13 +4966,13 @@
         <v>3845</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>251</v>
+        <v>99</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -4978,13 +4981,13 @@
         <v>35581</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -4993,13 +4996,13 @@
         <v>39426</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,13 +5017,13 @@
         <v>1018586</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>257</v>
+        <v>108</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>211</v>
+        <v>255</v>
       </c>
       <c r="H14" s="7">
         <v>947</v>
@@ -5029,13 +5032,13 @@
         <v>1007332</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M14" s="7">
         <v>1894</v>
@@ -5044,13 +5047,13 @@
         <v>2025918</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5106,7 +5109,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5124,7 +5127,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5139,7 +5142,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5154,7 +5157,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,13 +5172,13 @@
         <v>2238</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -5184,13 +5187,13 @@
         <v>30851</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M17" s="7">
         <v>29</v>
@@ -5199,13 +5202,13 @@
         <v>33089</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,10 +5223,10 @@
         <v>757314</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>24</v>
@@ -5235,13 +5238,13 @@
         <v>754160</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M18" s="7">
         <v>1403</v>
@@ -5250,13 +5253,13 @@
         <v>1511474</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5312,7 +5315,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5330,7 +5333,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5345,7 +5348,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5360,7 +5363,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,13 +5378,13 @@
         <v>3787</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>249</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>265</v>
+        <v>138</v>
       </c>
       <c r="H21" s="7">
         <v>25</v>
@@ -5390,13 +5393,13 @@
         <v>28938</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>237</v>
+        <v>279</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>281</v>
+        <v>177</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M21" s="7">
         <v>29</v>
@@ -5408,10 +5411,10 @@
         <v>37</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>283</v>
+        <v>80</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>124</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,13 +5429,13 @@
         <v>933780</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>273</v>
+        <v>143</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>89</v>
+        <v>255</v>
       </c>
       <c r="H22" s="7">
         <v>934</v>
@@ -5441,13 +5444,13 @@
         <v>1014841</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>286</v>
+        <v>184</v>
       </c>
       <c r="M22" s="7">
         <v>1862</v>
@@ -5456,13 +5459,13 @@
         <v>1948620</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>285</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>287</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5536,7 +5539,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5551,7 +5554,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5566,7 +5569,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5581,13 +5584,13 @@
         <v>11772</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H25" s="7">
         <v>106</v>
@@ -5596,13 +5599,13 @@
         <v>122163</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>291</v>
+        <v>223</v>
       </c>
       <c r="M25" s="7">
         <v>118</v>
@@ -5611,13 +5614,13 @@
         <v>133935</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>294</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5632,13 +5635,13 @@
         <v>3382578</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>209</v>
+        <v>292</v>
       </c>
       <c r="H26" s="7">
         <v>3232</v>
@@ -5647,13 +5650,13 @@
         <v>3422379</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>297</v>
+        <v>230</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="M26" s="7">
         <v>6451</v>
@@ -5662,13 +5665,13 @@
         <v>6804957</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>300</v>
+        <v>258</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5724,7 +5727,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -5745,7 +5748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A33F38-F2C3-4A02-B93D-D042CF07E414}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2AD9017-FC0F-4F35-A78A-0B29B530E2F2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5762,7 +5765,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5875,7 +5878,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5890,7 +5893,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5905,7 +5908,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5920,13 +5923,13 @@
         <v>2387</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H5" s="7">
         <v>28</v>
@@ -5935,13 +5938,13 @@
         <v>10863</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="M5" s="7">
         <v>32</v>
@@ -5950,13 +5953,13 @@
         <v>13250</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5971,13 +5974,13 @@
         <v>99595</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H6" s="7">
         <v>215</v>
@@ -5986,13 +5989,13 @@
         <v>119870</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="M6" s="7">
         <v>329</v>
@@ -6001,13 +6004,13 @@
         <v>219465</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6081,7 +6084,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -6090,13 +6093,13 @@
         <v>27412</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -6105,13 +6108,13 @@
         <v>27412</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6126,13 +6129,13 @@
         <v>4575</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>328</v>
+        <v>101</v>
       </c>
       <c r="H9" s="7">
         <v>62</v>
@@ -6141,13 +6144,13 @@
         <v>31128</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="M9" s="7">
         <v>69</v>
@@ -6156,13 +6159,13 @@
         <v>35702</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6177,13 +6180,13 @@
         <v>545248</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>334</v>
+        <v>109</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="H10" s="7">
         <v>932</v>
@@ -6192,13 +6195,13 @@
         <v>560810</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>227</v>
+        <v>332</v>
       </c>
       <c r="M10" s="7">
         <v>1537</v>
@@ -6207,13 +6210,13 @@
         <v>1106059</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6269,7 +6272,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6287,7 +6290,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -6296,13 +6299,13 @@
         <v>1323</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -6311,13 +6314,13 @@
         <v>1323</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6332,13 +6335,13 @@
         <v>8705</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>343</v>
+        <v>121</v>
       </c>
       <c r="H13" s="7">
         <v>82</v>
@@ -6347,13 +6350,13 @@
         <v>44815</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="M13" s="7">
         <v>93</v>
@@ -6362,13 +6365,13 @@
         <v>53520</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6383,13 +6386,13 @@
         <v>1029227</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>350</v>
+        <v>127</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="H14" s="7">
         <v>1426</v>
@@ -6398,13 +6401,13 @@
         <v>1009510</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="M14" s="7">
         <v>2378</v>
@@ -6413,13 +6416,13 @@
         <v>2038737</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6475,7 +6478,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6493,7 +6496,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6508,7 +6511,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6523,7 +6526,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6538,13 +6541,13 @@
         <v>4631</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="H17" s="7">
         <v>57</v>
@@ -6553,13 +6556,13 @@
         <v>34170</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>63</v>
+        <v>353</v>
       </c>
       <c r="M17" s="7">
         <v>62</v>
@@ -6568,13 +6571,13 @@
         <v>38801</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6589,13 +6592,13 @@
         <v>720355</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H18" s="7">
         <v>983</v>
@@ -6604,13 +6607,13 @@
         <v>836278</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>71</v>
+        <v>357</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="M18" s="7">
         <v>1650</v>
@@ -6619,10 +6622,10 @@
         <v>1556634</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>25</v>
@@ -6681,7 +6684,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6699,7 +6702,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6708,13 +6711,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -6723,13 +6726,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6744,13 +6747,13 @@
         <v>9350</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="H21" s="7">
         <v>92</v>
@@ -6759,13 +6762,13 @@
         <v>55477</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>220</v>
+        <v>363</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="M21" s="7">
         <v>100</v>
@@ -6774,13 +6777,13 @@
         <v>64827</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6795,13 +6798,13 @@
         <v>953733</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>300</v>
+        <v>258</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H22" s="7">
         <v>1464</v>
@@ -6810,13 +6813,13 @@
         <v>1088752</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>371</v>
       </c>
       <c r="M22" s="7">
         <v>2459</v>
@@ -6825,13 +6828,13 @@
         <v>2042485</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6905,7 +6908,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -6917,10 +6920,10 @@
         <v>15</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -6929,13 +6932,13 @@
         <v>31497</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6950,13 +6953,13 @@
         <v>29648</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>251</v>
+        <v>379</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H25" s="7">
         <v>321</v>
@@ -6965,13 +6968,13 @@
         <v>176453</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="M25" s="7">
         <v>356</v>
@@ -6980,13 +6983,13 @@
         <v>206101</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>290</v>
+        <v>385</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7001,7 +7004,7 @@
         <v>3348158</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>257</v>
+        <v>388</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>389</v>
@@ -7034,10 +7037,10 @@
         <v>394</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>232</v>
+        <v>395</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7093,7 +7096,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1429-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1429-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13B34A3F-4047-4239-A82F-D6ED5457C2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5B81001-F3A5-4657-BA1B-2785275D9586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{39B9E380-9FDB-48CE-A99A-B0069F596A21}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{531D9C91-BDF8-4AFB-A393-14F64276B273}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="323">
   <si>
     <t>Población con diagnóstico de osteoporosis en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,1075 +68,946 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de osteoporosis en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
     <t>1,81%</t>
   </si>
   <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de osteoporosis en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
     <t>3,11%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de osteoporosis en 2023 (Tasa respuesta: 99,61%)</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
   </si>
   <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
   </si>
   <si>
     <t>99,63%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de osteoporosis en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de osteoporosis en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de osteoporosis en 2023 (Tasa respuesta: 99,61%)</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
+    <t>95,41%</t>
   </si>
   <si>
     <t>94,31%</t>
   </si>
   <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
   </si>
 </sst>
 </file>
@@ -1548,8 +1419,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C702F0-A7C6-4356-B8DD-DC5CC9338B7E}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB7FB0E-6168-4802-B92B-6D7F62857B7D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1666,10 +1537,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>9541</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1681,10 +1552,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="I4" s="7">
-        <v>3505</v>
+        <v>24973</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1696,10 +1567,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="N4" s="7">
-        <v>3505</v>
+        <v>34514</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1717,10 +1588,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>105</v>
+        <v>674</v>
       </c>
       <c r="D5" s="7">
-        <v>115358</v>
+        <v>684471</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1732,10 +1603,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>124</v>
+        <v>671</v>
       </c>
       <c r="I5" s="7">
-        <v>109250</v>
+        <v>663378</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1747,10 +1618,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>229</v>
+        <v>1345</v>
       </c>
       <c r="N5" s="7">
-        <v>224608</v>
+        <v>1347849</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1768,102 +1639,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>9541</v>
+        <v>12535</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I7" s="7">
-        <v>21468</v>
+        <v>36615</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="N7" s="7">
-        <v>31009</v>
+        <v>49150</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1872,49 +1743,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>569</v>
+        <v>884</v>
       </c>
       <c r="D8" s="7">
-        <v>569113</v>
+        <v>949265</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>547</v>
+        <v>874</v>
       </c>
       <c r="I8" s="7">
-        <v>554128</v>
+        <v>931778</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1116</v>
+        <v>1758</v>
       </c>
       <c r="N8" s="7">
-        <v>1123241</v>
+        <v>1881043</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1923,99 +1794,99 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>12535</v>
+        <v>2674</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
+        <v>39</v>
+      </c>
+      <c r="I10" s="7">
+        <v>39141</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="7">
+        <v>42</v>
+      </c>
+      <c r="N10" s="7">
+        <v>41815</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="I10" s="7">
-        <v>36615</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M10" s="7">
-        <v>46</v>
-      </c>
-      <c r="N10" s="7">
-        <v>49150</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>58</v>
@@ -2027,10 +1898,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>884</v>
+        <v>638</v>
       </c>
       <c r="D11" s="7">
-        <v>949265</v>
+        <v>675835</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>59</v>
@@ -2042,10 +1913,10 @@
         <v>61</v>
       </c>
       <c r="H11" s="7">
-        <v>874</v>
+        <v>657</v>
       </c>
       <c r="I11" s="7">
-        <v>931778</v>
+        <v>644700</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>62</v>
@@ -2057,10 +1928,10 @@
         <v>64</v>
       </c>
       <c r="M11" s="7">
-        <v>1758</v>
+        <v>1295</v>
       </c>
       <c r="N11" s="7">
-        <v>1881043</v>
+        <v>1320535</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>65</v>
@@ -2069,7 +1940,7 @@
         <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2078,99 +1949,99 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>2674</v>
+        <v>9077</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>43</v>
+      </c>
+      <c r="I13" s="7">
+        <v>44562</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="7">
-        <v>39</v>
-      </c>
-      <c r="I13" s="7">
-        <v>39141</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>53</v>
+      </c>
+      <c r="N13" s="7">
+        <v>53639</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="M13" s="7">
-        <v>42</v>
-      </c>
-      <c r="N13" s="7">
-        <v>41815</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>76</v>
@@ -2182,10 +2053,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>638</v>
+        <v>984</v>
       </c>
       <c r="D14" s="7">
-        <v>675835</v>
+        <v>933145</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>77</v>
@@ -2197,10 +2068,10 @@
         <v>79</v>
       </c>
       <c r="H14" s="7">
-        <v>657</v>
+        <v>954</v>
       </c>
       <c r="I14" s="7">
-        <v>644700</v>
+        <v>994050</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>80</v>
@@ -2212,10 +2083,10 @@
         <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>1295</v>
+        <v>1938</v>
       </c>
       <c r="N14" s="7">
-        <v>1320535</v>
+        <v>1927195</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>83</v>
@@ -2224,7 +2095,7 @@
         <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2233,63 +2104,63 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D16" s="7">
-        <v>9077</v>
+        <v>33826</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>86</v>
@@ -2301,10 +2172,10 @@
         <v>88</v>
       </c>
       <c r="H16" s="7">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="I16" s="7">
-        <v>44562</v>
+        <v>145291</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>89</v>
@@ -2316,10 +2187,10 @@
         <v>91</v>
       </c>
       <c r="M16" s="7">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="N16" s="7">
-        <v>53639</v>
+        <v>179117</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>92</v>
@@ -2337,10 +2208,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>984</v>
+        <v>3180</v>
       </c>
       <c r="D17" s="7">
-        <v>933145</v>
+        <v>3242717</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>95</v>
@@ -2352,10 +2223,10 @@
         <v>97</v>
       </c>
       <c r="H17" s="7">
-        <v>954</v>
+        <v>3156</v>
       </c>
       <c r="I17" s="7">
-        <v>994050</v>
+        <v>3233906</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>98</v>
@@ -2367,10 +2238,10 @@
         <v>100</v>
       </c>
       <c r="M17" s="7">
-        <v>1938</v>
+        <v>6336</v>
       </c>
       <c r="N17" s="7">
-        <v>1927195</v>
+        <v>6476624</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>101</v>
@@ -2388,217 +2259,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>34</v>
-      </c>
-      <c r="D19" s="7">
-        <v>33826</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="A19" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H19" s="7">
-        <v>141</v>
-      </c>
-      <c r="I19" s="7">
-        <v>145291</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M19" s="7">
-        <v>175</v>
-      </c>
-      <c r="N19" s="7">
-        <v>179117</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3180</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3242718</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3156</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3233907</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6336</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6476623</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>120</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2611,8 +2326,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A6148C-52CF-4B12-9EB4-AE0634E4A4FC}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A260F190-93E7-43A2-89A1-313E3057330A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2628,7 +2343,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2729,49 +2444,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>2077</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I4" s="7">
-        <v>1116</v>
+        <v>18613</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="N4" s="7">
-        <v>1116</v>
+        <v>20691</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2780,49 +2495,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>672</v>
+      </c>
+      <c r="D5" s="7">
+        <v>701392</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="7">
+        <v>633</v>
+      </c>
+      <c r="I5" s="7">
+        <v>678437</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1305</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1379828</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="7">
-        <v>115765</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>98</v>
-      </c>
-      <c r="I5" s="7">
-        <v>110789</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="7">
-        <v>220</v>
-      </c>
-      <c r="N5" s="7">
-        <v>226554</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>131</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,102 +2546,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>2077</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H7" s="7">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I7" s="7">
-        <v>17498</v>
+        <v>36952</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="M7" s="7">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="N7" s="7">
-        <v>19575</v>
+        <v>36952</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2935,49 +2650,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>550</v>
+        <v>936</v>
       </c>
       <c r="D8" s="7">
-        <v>585627</v>
+        <v>1017947</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H8" s="7">
-        <v>535</v>
+        <v>904</v>
       </c>
       <c r="I8" s="7">
-        <v>567647</v>
+        <v>992021</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="M8" s="7">
-        <v>1085</v>
+        <v>1840</v>
       </c>
       <c r="N8" s="7">
-        <v>1153274</v>
+        <v>2009969</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2986,102 +2701,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>938</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1028973</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1874</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2046921</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>2254</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H10" s="7">
+        <v>24</v>
+      </c>
+      <c r="I10" s="7">
+        <v>26397</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M10" s="7">
+        <v>25</v>
+      </c>
+      <c r="N10" s="7">
+        <v>28652</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H10" s="7">
-        <v>34</v>
-      </c>
-      <c r="I10" s="7">
-        <v>36952</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M10" s="7">
-        <v>34</v>
-      </c>
-      <c r="N10" s="7">
-        <v>36952</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3090,49 +2805,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>936</v>
+        <v>687</v>
       </c>
       <c r="D11" s="7">
-        <v>1017947</v>
+        <v>754366</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" s="7">
+        <v>680</v>
+      </c>
+      <c r="I11" s="7">
+        <v>749668</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1367</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1504034</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="7">
-        <v>904</v>
-      </c>
-      <c r="I11" s="7">
-        <v>992021</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1840</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2009968</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,102 +2856,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>688</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>756620</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>938</v>
+        <v>704</v>
       </c>
       <c r="I12" s="7">
-        <v>1028973</v>
+        <v>776065</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1874</v>
+        <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>2046920</v>
+        <v>1532686</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>2254</v>
+        <v>2033</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H13" s="7">
+        <v>56</v>
+      </c>
+      <c r="I13" s="7">
+        <v>60402</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H13" s="7">
-        <v>24</v>
-      </c>
-      <c r="I13" s="7">
-        <v>26397</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>58</v>
+      </c>
+      <c r="N13" s="7">
+        <v>62436</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="M13" s="7">
-        <v>25</v>
-      </c>
-      <c r="N13" s="7">
-        <v>28652</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3245,49 +2960,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>687</v>
+        <v>908</v>
       </c>
       <c r="D14" s="7">
-        <v>754366</v>
+        <v>945706</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" s="7">
+        <v>947</v>
+      </c>
+      <c r="I14" s="7">
+        <v>991499</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="7">
-        <v>680</v>
-      </c>
-      <c r="I14" s="7">
-        <v>749668</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>1855</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1937204</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1367</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1504034</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,102 +3011,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>688</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>756620</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>704</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>776065</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1392</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1532686</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>2033</v>
+        <v>6365</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H16" s="7">
+        <v>131</v>
+      </c>
+      <c r="I16" s="7">
+        <v>142365</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="H16" s="7">
-        <v>56</v>
-      </c>
-      <c r="I16" s="7">
-        <v>60402</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>136</v>
+      </c>
+      <c r="N16" s="7">
+        <v>148730</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="M16" s="7">
-        <v>58</v>
-      </c>
-      <c r="N16" s="7">
-        <v>62436</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3400,25 +3115,25 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>908</v>
+        <v>3203</v>
       </c>
       <c r="D17" s="7">
-        <v>945706</v>
+        <v>3419411</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="H17" s="7">
-        <v>947</v>
+        <v>3164</v>
       </c>
       <c r="I17" s="7">
-        <v>991499</v>
+        <v>3411625</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>179</v>
@@ -3430,10 +3145,10 @@
         <v>181</v>
       </c>
       <c r="M17" s="7">
-        <v>1855</v>
+        <v>6367</v>
       </c>
       <c r="N17" s="7">
-        <v>1937204</v>
+        <v>6831036</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>182</v>
@@ -3442,7 +3157,7 @@
         <v>183</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>45</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,217 +3166,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3208</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3425776</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3295</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3553990</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6503</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6979766</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>5</v>
-      </c>
-      <c r="D19" s="7">
-        <v>6365</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H19" s="7">
-        <v>131</v>
-      </c>
-      <c r="I19" s="7">
-        <v>142365</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M19" s="7">
-        <v>136</v>
-      </c>
-      <c r="N19" s="7">
-        <v>148730</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3203</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3419411</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3164</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3411625</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6367</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6831036</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3208</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3425776</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3295</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3553990</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6503</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6979766</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>120</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3674,8 +3233,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C74E5B4-F1E8-4E91-829F-A9B0ACA540A5}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0ED7ED4-ED57-43FF-AF4E-F03911D3C0D7}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3691,7 +3250,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3792,49 +3351,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>1100</v>
+        <v>1901</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>204</v>
+        <v>113</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="I4" s="7">
-        <v>2996</v>
+        <v>26792</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="M4" s="7">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="N4" s="7">
-        <v>4095</v>
+        <v>28694</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>209</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,49 +3402,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>112</v>
+        <v>650</v>
       </c>
       <c r="D5" s="7">
-        <v>115446</v>
+        <v>672899</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>211</v>
+        <v>123</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>112</v>
+        <v>642</v>
       </c>
       <c r="I5" s="7">
-        <v>110364</v>
+        <v>646047</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="M5" s="7">
-        <v>224</v>
+        <v>1292</v>
       </c>
       <c r="N5" s="7">
-        <v>225811</v>
+        <v>1318945</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>215</v>
+        <v>164</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3894,102 +3453,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>802</v>
+        <v>3845</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>197</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>218</v>
+        <v>68</v>
       </c>
       <c r="H7" s="7">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I7" s="7">
-        <v>23797</v>
+        <v>35581</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="M7" s="7">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="N7" s="7">
-        <v>24598</v>
+        <v>39426</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>221</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,49 +3557,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>538</v>
+        <v>947</v>
       </c>
       <c r="D8" s="7">
-        <v>557452</v>
+        <v>1018586</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="H8" s="7">
-        <v>530</v>
+        <v>947</v>
       </c>
       <c r="I8" s="7">
-        <v>535682</v>
+        <v>1007332</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="M8" s="7">
-        <v>1068</v>
+        <v>1894</v>
       </c>
       <c r="N8" s="7">
-        <v>1093135</v>
+        <v>2025918</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>228</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,102 +3608,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>3845</v>
+        <v>2238</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>232</v>
+        <v>107</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>86</v>
+        <v>209</v>
       </c>
       <c r="H10" s="7">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I10" s="7">
-        <v>35581</v>
+        <v>30851</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>234</v>
+        <v>36</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="M10" s="7">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N10" s="7">
-        <v>39426</v>
+        <v>33089</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>212</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,49 +3712,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>947</v>
+        <v>694</v>
       </c>
       <c r="D11" s="7">
-        <v>1018586</v>
+        <v>757314</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>95</v>
+        <v>216</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>239</v>
+        <v>117</v>
       </c>
       <c r="H11" s="7">
-        <v>947</v>
+        <v>709</v>
       </c>
       <c r="I11" s="7">
-        <v>1007332</v>
+        <v>754160</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>242</v>
+        <v>46</v>
       </c>
       <c r="M11" s="7">
-        <v>1894</v>
+        <v>1403</v>
       </c>
       <c r="N11" s="7">
-        <v>2025918</v>
+        <v>1511474</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>67</v>
+        <v>219</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,102 +3763,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>2238</v>
+        <v>3787</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>223</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>246</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I13" s="7">
-        <v>30851</v>
+        <v>28938</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>54</v>
+        <v>225</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
       </c>
       <c r="N13" s="7">
-        <v>33089</v>
+        <v>32726</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>14</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,49 +3867,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>694</v>
+        <v>928</v>
       </c>
       <c r="D14" s="7">
-        <v>757314</v>
+        <v>933780</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>252</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>231</v>
       </c>
       <c r="H14" s="7">
-        <v>709</v>
+        <v>934</v>
       </c>
       <c r="I14" s="7">
-        <v>754160</v>
+        <v>1014841</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>64</v>
+        <v>234</v>
       </c>
       <c r="M14" s="7">
-        <v>1403</v>
+        <v>1862</v>
       </c>
       <c r="N14" s="7">
-        <v>1511474</v>
+        <v>1948620</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>24</v>
+        <v>236</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,102 +3918,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>3787</v>
+        <v>11772</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>258</v>
+        <v>167</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>86</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="I16" s="7">
-        <v>28938</v>
+        <v>122163</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="N16" s="7">
-        <v>32726</v>
+        <v>133935</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>31</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4463,49 +4022,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>928</v>
+        <v>3219</v>
       </c>
       <c r="D17" s="7">
-        <v>933780</v>
+        <v>3382578</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>265</v>
+        <v>176</v>
       </c>
       <c r="H17" s="7">
-        <v>934</v>
+        <v>3232</v>
       </c>
       <c r="I17" s="7">
-        <v>1014841</v>
+        <v>3422379</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="M17" s="7">
-        <v>1862</v>
+        <v>6451</v>
       </c>
       <c r="N17" s="7">
-        <v>1948620</v>
+        <v>6804957</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>40</v>
+        <v>251</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4514,217 +4073,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>12</v>
-      </c>
-      <c r="D19" s="7">
-        <v>11772</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H19" s="7">
-        <v>106</v>
-      </c>
-      <c r="I19" s="7">
-        <v>122163</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="M19" s="7">
-        <v>118</v>
-      </c>
-      <c r="N19" s="7">
-        <v>133935</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3219</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3382578</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3232</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3422379</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6451</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6804957</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>120</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4737,8 +4140,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6938C523-6D26-4C00-953F-AA466549E09A}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56B6594-A3A9-4197-96D4-D86A57685E65}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4754,7 +4157,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4855,49 +4258,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>2387</v>
+        <v>6718</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>72</v>
+        <v>257</v>
       </c>
       <c r="H4" s="7">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="I4" s="7">
-        <v>10863</v>
+        <v>38782</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>288</v>
+        <v>73</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="M4" s="7">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="N4" s="7">
-        <v>13250</v>
+        <v>45499</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>292</v>
+        <v>224</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4906,49 +4309,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>114</v>
+        <v>719</v>
       </c>
       <c r="D5" s="7">
-        <v>99595</v>
+        <v>628723</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>80</v>
+        <v>263</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="H5" s="7">
-        <v>215</v>
+        <v>1147</v>
       </c>
       <c r="I5" s="7">
-        <v>119870</v>
+        <v>635988</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="M5" s="7">
-        <v>329</v>
+        <v>1866</v>
       </c>
       <c r="N5" s="7">
-        <v>219465</v>
+        <v>1264713</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>301</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4957,102 +4360,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1237</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>674770</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1967</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1310212</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>4575</v>
+        <v>7968</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>303</v>
+        <v>208</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="H7" s="7">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="I7" s="7">
-        <v>31128</v>
+        <v>40474</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>305</v>
+        <v>271</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="M7" s="7">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="N7" s="7">
-        <v>35702</v>
+        <v>48441</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>147</v>
+        <v>274</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5061,49 +4464,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>605</v>
+        <v>952</v>
       </c>
       <c r="D8" s="7">
-        <v>545248</v>
+        <v>1183575</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>310</v>
+        <v>215</v>
       </c>
       <c r="H8" s="7">
-        <v>932</v>
+        <v>1426</v>
       </c>
       <c r="I8" s="7">
-        <v>560810</v>
+        <v>912787</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="M8" s="7">
-        <v>1537</v>
+        <v>2378</v>
       </c>
       <c r="N8" s="7">
-        <v>1106059</v>
+        <v>2096363</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>314</v>
+        <v>280</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>315</v>
+        <v>281</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>152</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5112,102 +4515,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>963</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1191543</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>994</v>
+        <v>1508</v>
       </c>
       <c r="I9" s="7">
-        <v>591938</v>
+        <v>953261</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1606</v>
+        <v>2471</v>
       </c>
       <c r="N9" s="7">
-        <v>1141761</v>
+        <v>2144804</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>8705</v>
+        <v>4232</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="H10" s="7">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="I10" s="7">
-        <v>44815</v>
+        <v>31237</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="M10" s="7">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="N10" s="7">
-        <v>53520</v>
+        <v>35469</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>320</v>
+        <v>288</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5216,49 +4619,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>952</v>
+        <v>667</v>
       </c>
       <c r="D11" s="7">
-        <v>1029227</v>
+        <v>696936</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="H11" s="7">
-        <v>1426</v>
+        <v>983</v>
       </c>
       <c r="I11" s="7">
-        <v>1009511</v>
+        <v>898536</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="M11" s="7">
-        <v>2378</v>
+        <v>1650</v>
       </c>
       <c r="N11" s="7">
-        <v>2038738</v>
+        <v>1595472</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>182</v>
+        <v>297</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5267,102 +4670,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>963</v>
+        <v>672</v>
       </c>
       <c r="D12" s="7">
-        <v>1037932</v>
+        <v>701168</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1508</v>
+        <v>1040</v>
       </c>
       <c r="I12" s="7">
-        <v>1054326</v>
+        <v>929773</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2471</v>
+        <v>1712</v>
       </c>
       <c r="N12" s="7">
-        <v>2092258</v>
+        <v>1630941</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>4631</v>
+        <v>9400</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>328</v>
+        <v>108</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="H13" s="7">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="I13" s="7">
-        <v>34170</v>
+        <v>49963</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="M13" s="7">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="N13" s="7">
-        <v>38801</v>
+        <v>59363</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5371,49 +4774,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>667</v>
+        <v>995</v>
       </c>
       <c r="D14" s="7">
-        <v>720355</v>
+        <v>915231</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>334</v>
+        <v>116</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="H14" s="7">
-        <v>983</v>
+        <v>1464</v>
       </c>
       <c r="I14" s="7">
-        <v>836278</v>
+        <v>1039573</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>253</v>
+        <v>307</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="M14" s="7">
-        <v>1650</v>
+        <v>2459</v>
       </c>
       <c r="N14" s="7">
-        <v>1556634</v>
+        <v>1954804</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5422,102 +4825,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>672</v>
+        <v>1003</v>
       </c>
       <c r="D15" s="7">
-        <v>724986</v>
+        <v>924631</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1040</v>
+        <v>1556</v>
       </c>
       <c r="I15" s="7">
-        <v>870448</v>
+        <v>1089536</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1712</v>
+        <v>2559</v>
       </c>
       <c r="N15" s="7">
-        <v>1595435</v>
+        <v>2014167</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D16" s="7">
-        <v>9350</v>
+        <v>28317</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>312</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="H16" s="7">
-        <v>92</v>
+        <v>321</v>
       </c>
       <c r="I16" s="7">
-        <v>55477</v>
+        <v>160456</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>343</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>344</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
-        <v>100</v>
+        <v>356</v>
       </c>
       <c r="N16" s="7">
-        <v>64827</v>
+        <v>188773</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>346</v>
+        <v>245</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,49 +4929,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>995</v>
+        <v>3333</v>
       </c>
       <c r="D17" s="7">
-        <v>953733</v>
+        <v>3424466</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>348</v>
+        <v>318</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>29</v>
+        <v>319</v>
       </c>
       <c r="H17" s="7">
-        <v>1464</v>
+        <v>5020</v>
       </c>
       <c r="I17" s="7">
-        <v>1088752</v>
+        <v>3486884</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>350</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>351</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
-        <v>2459</v>
+        <v>8353</v>
       </c>
       <c r="N17" s="7">
-        <v>2042485</v>
+        <v>6911350</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>353</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5577,217 +4980,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1003</v>
+        <v>3368</v>
       </c>
       <c r="D18" s="7">
-        <v>963083</v>
+        <v>3452783</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1556</v>
+        <v>5341</v>
       </c>
       <c r="I18" s="7">
-        <v>1144229</v>
+        <v>3647340</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2559</v>
+        <v>8709</v>
       </c>
       <c r="N18" s="7">
-        <v>2107312</v>
+        <v>7100123</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>35</v>
-      </c>
-      <c r="D19" s="7">
-        <v>29648</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H19" s="7">
-        <v>321</v>
-      </c>
-      <c r="I19" s="7">
-        <v>176453</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="M19" s="7">
-        <v>356</v>
-      </c>
-      <c r="N19" s="7">
-        <v>206101</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3333</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3348158</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5020</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3615221</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8353</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6963379</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3368</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3377806</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5341</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3791674</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8709</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7169480</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>120</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
